--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_ControlAppearance.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_ControlAppearance.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Testcase ID</t>
   </si>
@@ -64,9 +64,6 @@
 1. Set visibility parameter to visible of addressbar.
 2. Enter secure site link which satrts with https identifier
 3. Press enter button.</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t xml:space="preserve">validate1
@@ -589,7 +586,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -656,17 +653,15 @@
         <v>1</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
   </sheetData>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_ControlAppearance.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_ControlAppearance.xlsx
@@ -85,7 +85,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">wait(2);
+    <t>wait(2);
 validate1;
 link_Click(controlappearance_test_link);
 wait(2);
@@ -98,8 +98,7 @@
 TypeinAddressbar(VT366_0111_Address_xpath,http://10.233.85.82/neon/All_index.html);
 wait(3);
 SwitchApp(WEBVIEW);
-validate4;
-</t>
+validate4;</t>
   </si>
 </sst>
 </file>
@@ -586,7 +585,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_ControlAppearance.xlsx
+++ b/auto/other/UIAutomation/Hybrid_TestNG_Framework/src/com/xls/RE22_ControlAppearance.xlsx
@@ -96,7 +96,8 @@
 wait(2);
 SwitchApp(NATIVE_APP);
 TypeinAddressbar(VT366_0111_Address_xpath,http://10.233.85.82/neon/All_index.html);
-wait(3);
+ClickNativeIcon(VT366_0111_Go_xpath);
+wait(10);
 SwitchApp(WEBVIEW);
 validate4;</t>
   </si>
@@ -585,7 +586,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
